--- a/Test Data/Gallery_Zetfas_STI_Loop_Devices.xlsx
+++ b/Test Data/Gallery_Zetfas_STI_Loop_Devices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D07DB2-6B19-4097-A46F-7B2887B4061E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C09D04-329D-4A02-913F-3CE19D3CBFCB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors_STI" sheetId="9" r:id="rId1"/>
@@ -155,7 +155,7 @@
     <t>Detectors Zetfas</t>
   </si>
   <si>
-    <t>NGC-3475/T1832/1858</t>
+    <t>NGC-3475/T1832/1858/NGC-2930/T3173/T1832</t>
   </si>
 </sst>
 </file>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{456445D4-E380-474B-B0C8-5A89B0162875}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,7 +832,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,7 +927,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" activeCellId="1" sqref="B4 C6:C21"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1261,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE4088BE-465A-4004-A922-5D0BF5F19D70}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
